--- a/Input_Output/Content/run_input.xlsx
+++ b/Input_Output/Content/run_input.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t xml:space="preserve">Environment</t>
   </si>
@@ -42,13 +42,13 @@
     <t xml:space="preserve">Core</t>
   </si>
   <si>
+    <t xml:space="preserve">End</t>
+  </si>
+  <si>
     <t xml:space="preserve">MeaningfulBeauty</t>
   </si>
   <si>
     <t xml:space="preserve">WestmoreBeauty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End</t>
   </si>
 </sst>
 </file>
@@ -146,16 +146,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
   </cols>
@@ -184,31 +184,38 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -231,7 +238,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -254,7 +261,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
